--- a/export/export_files/Barska AX13090 1.2 Cu. ft Digital Keypad Security Safe Black/Barska AX13090 1.2 Cu. ft Digit.xlsx
+++ b/export/export_files/Barska AX13090 1.2 Cu. ft Digital Keypad Security Safe Black/Barska AX13090 1.2 Cu. ft Digit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,96 +448,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://ecohomeoffice.com/products/barska-ax13090-digital-keypad-security-safe-box-1-2-cubic-ft-black?variant=39684568776791</t>
+          <t>https://www.webstaurantstore.com/barska-ax12622-12-x-9-1-2-x-4-1-2-black-steel-top-open-security-safe-with-digital-keypad-and-key-lock-0-21-cu-ft/242AX12622.html?srsltid=AfmBOor_JC-a2ma5VfttMQWPoh-Ghu7jk7rBpzVsVssLmTx2hnR30dr0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>152.99</t>
+          <t>99.99</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.etundra.com/restaurant-parts/hardware/drawer-cabinet/barska-ax13090-1.2-cubic-foot-wide-keypad-safe-/?srsltid=AfmBOor03HGkrJuTm5CVmcbwOFSvsNLo_hXEsWkNEHhQFkNqkDKPlaDO</t>
+          <t>https://shop.barska.com/products/1-2-cu-ft-digital-keypad-security-safe?srsltid=AfmBOopvVtJM7ENadm74Cv_RHEY0hRAdjtR0AEHqSFM5w6AUFMfRx-LS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>157.37</t>
+          <t>182.99</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://shop.barska.com/products/1-2-cu-ft-digital-keypad-security-safe?srsltid=AfmBOopIlfMrIeyc4wZnPGSq8jNYStxw3XnRU0iBGDmFx073iGFoAErx</t>
+          <t>https://www.globalindustrial.com/p/ax13090-keypad-security-safe-16w-x-191116d-x-71316h-12-cubic-ft?srsltid=AfmBOooDd4XQWARYcIWwgLSuLxIZnXgO2Jpeeu4OgtNQQdQFGSfqTm2q</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>182.99</t>
+          <t>199.95</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.guidefitter.com/barska/shop/12-cubic-ft-keypad-safe?b=true</t>
+          <t>https://www.safeandvaultstore.com/products/barska-ax13090-1-2-cubic-ft-keypad-security-safe?srsltid=AfmBOooTAWOwsSSjHmAt3AWZ_onvaYrfYqFkobqdLyfZx7EwWxIURJyl</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>182.99</t>
+          <t>206.99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.globalindustrial.com/p/ax13090-keypad-security-safe-16w-x-191116d-x-71316h-12-cubic-ft?srsltid=AfmBOopKVVKWPg_Oxe36MolJ9ykA20Xhb_SbB2aMp-ViEVDjrVePuvV3</t>
+          <t>https://megadepot.com/product/barska-ax13090-1-2-cubic-ft-keypad-safe?srsltid=AfmBOoqbbVAq-rvU7ps6o7SC0gF3aZ9tAh2c-O1h9Y2X7HM-OB0Eausx</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>199.95</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.safeandvaultstore.com/products/barska-ax13090-1-2-cubic-ft-keypad-security-safe?srsltid=AfmBOoowU1Gs1noibRsgvmjX3WvG5jW9Ho_pYVdSPfPfCnDcIinCSs40</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>206.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://megadepot.com/product/barska-ax13090-1-2-cubic-ft-keypad-safe?srsltid=AfmBOophSj0EKVHCsnYOzxjY8CKmEq4_2ES9hKTEHbynmdmG6bbIvOXG</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>209.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://myofficemachines.com/index.php/product/barska-ax13098-1-45-cu-ft-digital-keypad-security-safe/?srsltid=AfmBOoqOeWz6yac_KA-cgD3oh1PYlyl8zFbyb62cQu0TtXg44LOPImXF</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>304.99</t>
         </is>
       </c>
     </row>
